--- a/data/output/FV2304_FV2210/UTILMD/11113.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11113.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="309">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="309">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1047,6 +1047,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U202" totalsRowShown="0">
+  <autoFilter ref="A1:U202"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,7 +1366,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10637,5 +10670,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11113.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11113.xlsx
@@ -2058,7 +2058,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4594,7 +4594,7 @@
         <v>290</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4746,7 +4746,7 @@
         <v>291</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5126,7 +5126,7 @@
         <v>293</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5324,7 +5324,7 @@
         <v>296</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5580,7 +5580,7 @@
         <v>297</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6110,7 +6110,7 @@
         <v>299</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6250,7 +6250,7 @@
         <v>300</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6404,7 +6404,7 @@
         <v>302</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6554,7 +6554,7 @@
         <v>302</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6810,7 +6810,7 @@
         <v>299</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7206,7 +7206,7 @@
         <v>302</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7494,7 +7494,7 @@
         <v>303</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7782,7 +7782,7 @@
         <v>304</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8550,7 +8550,7 @@
         <v>306</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8838,7 +8838,7 @@
         <v>296</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9376,7 +9376,7 @@
         <v>307</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -9664,7 +9664,7 @@
         <v>308</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10110,7 +10110,7 @@
         <v>308</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10760,7 +10760,7 @@
         <v>308</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11260,7 +11260,7 @@
         <v>308</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N200" s="2"/>
